--- a/book_list.xlsx
+++ b/book_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="418">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">[Артур Конан Дойл]</t>
   </si>
   <si>
-    <t xml:space="preserve">[Британия]</t>
+    <t xml:space="preserve">[Англия]</t>
   </si>
   <si>
     <t xml:space="preserve">[детектив, вестерн]</t>
@@ -514,6 +514,480 @@
     <t xml:space="preserve">«Прощание с иллюзиями»</t>
   </si>
   <si>
+    <t xml:space="preserve">[Владимир Познер]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://ru.wikipedia.org/wiki/%D0%9F%D1%80%D0%BE%D1%89%D0%B0%D0%BD%D0%B8%D0%B5_%D1%81_%D0%B8%D0%BB%D0%BB%D1%8E%D0%B7%D0%B8%D1%8F%D0%BC%D0%B8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Пятнадцатый камень сада Рёандзи»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Владимир Цветов]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[очерк]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1000314558-pyatnadtsatyj-kamen-sada-rjoandzi-tsvetov-vladimir, https://fantlab.ru/work1304056]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Бойня номер пять, или Крестовый поход детей»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Курт Воннегут]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1002281168-bojnya-no5-kurt-vonnegut, https://fantlab.ru/work3799]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Галапагосы»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1002734514-galapagosy-kurt-vonnegut, https://fantlab.ru/work3804]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Дневник Анны Франк»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Анна Франк]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[дневник]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1009169965-dnevnik-anny-frank-12-iyunya-1942-1-avgusta-1944-anna-frank, https://fantlab.ru/work976615]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Посторонний»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Альбер Камю]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1008893356-postoronnij-alber-kamyu, https://fantlab.ru/work306026]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Шагреневая кожа»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Оноре де Бальзак]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[притча]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1008738202-shagrenevaya-kozha-onore-de-balzak, https://fantlab.ru/work172664]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Мелкие боги»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Терри Пратчетт]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1000314150-melkie-bogi-terri-pratchett, https://fantlab.ru/work1722]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Бойцовский клуб»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Чак Паланик]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[триллер]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1008887209-bojtsovskij-klub-chak-palanik, https://fantlab.ru/work18413]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Маленькая хозяйка большого дома»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1005588787-malenkaya-hozyajka-bolshogo-doma-dzhek-london, https://fantlab.ru/work183821]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Подросток»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1008404473-podrostok-fjodor-dostoevskij, https://fantlab.ru/work134600]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Рождественские повести»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1008802498-rozhdestvenskie-istorii-charlz-dikkens, https://fantlab.ru/work154462]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Брак и мораль»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Бертран Рассел]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1006207318-brak-i-moral-bertran-rassel, https://kaspi.kz/shop/p/rassel-b-brak-i-moral--101606677/]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Вторая жизнь Уве»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Фредрик Бакман]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Швеция]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1005586864-vtoraya-zhizn-uve-fredrik-bakman, https://fantlab.ru/work800253]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Гарри Поттер и методы рационального мышления»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Элиезер Юдковский]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1004979514-garri-potter-i-metody-ratsionalnogo-myshleniya-eliezer-yudkovskij, https://fantlab.ru/work698587]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Планета людей»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Антуан де Сент-Экзюпери]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://fantlab.ru/work83483, https://www.labirint.ru/books/914757/]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Илон Маск. Tesla, SpaceX и дорога в будущее»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Эшли Вэнс]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1002389741-ilon-mask-tesla-spacex-i-doroga-v-buduschee-eshli-vens]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Тысячеликий герой»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Джозеф Кэмпбелл]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[наука]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1008030517-tysyachelikij-geroj-dzhozef-kempbell]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«По ком звонит колокол»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1008372466-po-kom-zvonit-kolokol-ernest-heminguej, https://www.labirint.ru/books/713826/]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Маус»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Арт Шпигельман]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[графический роман]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1000732970-maus-art-shpigelman, https://fantlab.ru/work1656152]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Кысь»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Татьяна Толстая]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1002006261-kys-tatyana-tolstaya, https://fantlab.ru/work113455]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Бремя страстей человеческих»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1007593363-bremya-strastej-chelovecheskih-somerset-moem, https://fantlab.ru/work396857]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Одноэтажная Америка»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Илья Ильф и Евгений Петров]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1008836065-odnoetazhnaya-amerika-ilya-ilf-evgenij-petrov, https://fantlab.ru/work187509]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Финансист»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1007477017-finansist-teodor-drajzer, https://fantlab.ru/work414390]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Азазель»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Борис Акунин]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1003629901-azazel-boris-akunin, https://fantlab.ru/work24061]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Турецкий гамбит»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1003629903-turetskij-gambit-boris-akunin, https://fantlab.ru/work24062]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Зулейха открывает глаза»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Гузель Яхина]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1007068573-zulejha-otkryvaet-glaza-guzel-yahina, https://fantlab.ru/work667162]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Миф о красоте: стереотипы против женщин»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Наоми Вульф]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[научпоп]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1002919693-mif-o-krasote-stereotipy-protiv-zhenschin-naomi-vulf, https://ru.wikipedia.org/wiki/%D0%9C%D0%B8%D1%84_%D0%BE_%D0%BA%D1%80%D0%B0%D1%81%D0%BE%D1%82%D0%B5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Татуировщик из Освенцима»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Хезер Моррис]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Новая Зеландия]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1003838222-tatuirovschik-iz-osventsima-hezer-morris, https://fantlab.ru/work1130900]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Желтые короли»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Владимир Лобас]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1000306702-zheltye-koroli-vladimir-lobas]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Хребты безумия»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Говард Лавкрафт]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ужасы]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1000924636-hrebty-bezumiya-sbornik-govard-fillips-lavkraft, https://fantlab.ru/work27730]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Мечтают ли андроиды об электроовцах?»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Филип Дик]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1007040406-mechtayut-li-androidy-ob-elektroovtsah-filip-dik, https://fantlab.ru/work5353]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Жареные зелёные помидоры в кафе "Полустанок"»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Фэнни Флэгг]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1002702647-zharenye-zelenye-pomidory-v-kafe-polustanok-fenni-flegg, https://fantlab.ru/work115699]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Благоволительницы»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Джонатан Литтелл]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1003317413-blagovolitelnitsy-dzhonatan-littell, https://fantlab.ru/work273659]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Замок Броуди»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Арчибальд Кронин]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Шотландия]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1008421858-zamok-broudi-archibald-kronin, https://fantlab.ru/work315147]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Господа Головлёвы»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Михаил Салтыков-Щедрин]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1009033894-gospoda-golovlevy-mihail-saltykovschedrin, https://fantlab.ru/work204753]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Сандро из Чегема»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Фазиль Искандер]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1002970747-sandro-iz-chegema-fazil-iskander, https://fantlab.ru/work136864]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Академия»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Айзек Азимов]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1007411785-akademiya-ajzek-azimov, https://fantlab.ru/work7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«История, конца которой нет»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Михаэль Энде]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[притча, фэнтези]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1005003211-istoriya-kontsa-kotoroj-net-mihael-ende, https://fantlab.ru/work246221]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Рога»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Джо Хилл]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[мистика, триллер]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1010080648-roga-dzho-hill, https://fantlab.ru/work141644]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Тревожные люди»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1008700969-trevozhnye-lyudi-fredrik-bakman, https://fantlab.ru/work1333560]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Искра жизни»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1003407640-iskra-zhizni-erih-mariya-remark, https://fantlab.ru/work283577https://fantlab.ru/work283577]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Похититель детей»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Джеральд Бром]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1008892903-pohititel-detej-dzherald-brom, https://fantlab.ru/work177638]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«К востоку от Эдема»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1010078512-k-vostoku-ot-edema-dzhon-stejnbek, https://fantlab.ru/work261013]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Искренне ваш Шурик»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Людмила Улицкая]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.litres.ru/book/ludmila-ulickaya/iskrenne-vash-shurik-120072/, https://fantlab.ru/work305398]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Благие знамения»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Терри Пратчетт, Нил Гейман]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Англия, Англия]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[мистика]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1008517439-blagie-znameniya-nil-gejman-terri-pratchett, https://fantlab.ru/work1975]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Растревоженный эфир»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Ирвин Шоу]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1008845317-rastrevozhennyj-efir-irvin-shou, https://fantlab.ru/work808121]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Таис Афинская»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Иван Ефремов]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1009889674-tais-afinskaya-ivan-efremov, https://fantlab.ru/work13731]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Сговор остолопов»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Джон Кеннеди Тул]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1003155272-sgovor-ostolopov-dzhon-kennedi-tul, https://fantlab.ru/work266014]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Трудно быть человеком»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Мэтт Хейг]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1002884725-trudno-byt-chelovekom-mett-hejg, https://fantlab.ru/work417210]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Ночное кино»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Мариша Пессл]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[триллер, детектив, мистика]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1001533663-nochnoe-kino-marisha-pessl, https://fantlab.ru/work549299]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Луна и грош»</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -529,14 +1003,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Владимир Познер]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://ru.wikipedia.org/wiki/%D0%9F%D1%80%D0%BE%D1%89%D0%B0%D0%BD%D0%B8%D0%B5_%D1%81_%D0%B8%D0%BB%D0%BB%D1%8E%D0%B7%D0%B8%D1%8F%D0%BC%D0%B8]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Пятнадцатый камень сада Рёандзи»</t>
+      <t xml:space="preserve">Сомерсет Моэм]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.chitai-gorod.ru/product/luna-i-grosh-2410257, https://fantlab.ru/work215025]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Даниэль Штайн, переводчик»</t>
   </si>
   <si>
     <r>
@@ -554,17 +1028,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Владимир Цветов]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[очерк]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1000314558-pyatnadtsatyj-kamen-sada-rjoandzi-tsvetov-vladimir, https://fantlab.ru/work1304056]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Бойня номер пять, или Крестовый поход детей»</t>
+      <t xml:space="preserve">Людмила Улицкая]</t>
+    </r>
   </si>
   <si>
     <r>
@@ -574,6 +1039,31 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">[реализм, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">историческая проза]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1009208620-daniel-shtajn-perevodchik-lyudmila-ulitskaya, https://fantlab.ru/work264772]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Хладнокровное убийство»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">[</t>
     </r>
     <r>
@@ -582,20 +1072,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Курт Воннегут]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1002281168-bojnya-no5-kurt-vonnegut, https://fantlab.ru/work3799]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Галапагосы»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1002734514-galapagosy-kurt-vonnegut, https://fantlab.ru/work3804]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Дневник Анны Франк»</t>
+      <t xml:space="preserve">Трумен Капоте]</t>
+    </r>
   </si>
   <si>
     <r>
@@ -605,6 +1083,31 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">[реализм, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">триллер]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1005908245-hladnokrovnoe-ubijstvo-trumen-kapote, https://fantlab.ru/work231716]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Проект «Аве Мария»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">[</t>
     </r>
     <r>
@@ -613,17 +1116,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Анна Франк]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[дневник]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1009169965-dnevnik-anny-frank-12-iyunya-1942-1-avgusta-1944-anna-frank, https://fantlab.ru/work976615]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Посторонний»</t>
+      <t xml:space="preserve">Энди Вейер]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1008633982-proekt-ave-mariya-endi-vejer, https://fantlab.ru/work1303446]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Сердце тьмы»</t>
   </si>
   <si>
     <r>
@@ -641,14 +1141,26 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Альбер Камю]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1008893356-postoronnij-alber-kamyu, https://fantlab.ru/work306026]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Шагреневая кожа»</t>
+      <t xml:space="preserve">Джозеф Конрад]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.labirint.ru/books/804563/, https://fantlab.ru/work217259]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Теневая черта»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.labirint.ru/books/804563/, https://fantlab.ru/work516425]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Фрейя Семи Островов»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.labirint.ru/books/804563/, https://fantlab.ru/work323422]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Моби Дик, или Белый кит»</t>
   </si>
   <si>
     <r>
@@ -666,17 +1178,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Оноре де Бальзак]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[притча]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1008738202-shagrenevaya-kozha-onore-de-balzak, https://fantlab.ru/work172664]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Мелкие боги»</t>
+      <t xml:space="preserve">Герман Мелвилл]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1009340605-mobi-dik-ili-belyj-kit-german-melvill, https://fantlab.ru/work223350]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Бегущий за ветром»</t>
   </si>
   <si>
     <r>
@@ -694,455 +1203,598 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">Халед Хоссейни]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1002062846-beguschij-za-vetrom-haled-hossejni, https://fantlab.ru/work458525]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«День триффидов»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Джон Уиндем]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1001525317-den-triffidov-dzhon-uindem, https://fantlab.ru/work15067]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Рождественские каникулы»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1003021602-rozhdestvenskie-kanikuly-somerset-moem, https://fantlab.ru/work439716]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Задача трёх тел»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Лю Цысинь]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[Китай]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1008972610-zadacha-treh-tel-tsysin-lyu, https://fantlab.ru/work602234]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Роман без вранья»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Анатолий Мариенгоф]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1001668438-roman-bez-vranya-anatolij-mariengof, https://fantlab.ru/work437963]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Циники»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1003395768-tsiniki-anatolij-mariengof, https://fantlab.ru/work563570]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Вся королевская рать»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Роберт Пенн Уоррен]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1003483984-vsya-korolevskaya-rat-robert-penn-uorren, https://fantlab.ru/work337110]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Цитадель»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Арчибальд Кронин]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1002513813-tsitadel-archibald-kronin, https://fantlab.ru/work588483]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Щит и меч»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Вадим Кожевников]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1009033915-schit-i-mech-vadim-kozhevnikov, https://fantlab.ru/work270491]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Не отпускай меня»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Кадзуо Исигуро]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1008021736-ne-otpuskaj-menya-kadzuo-isiguro, https://fantlab.ru/work38434]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Лисьи броды»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Анна Старобинец]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1007150359-lisi-brody-anna-starobinets, https://fantlab.ru/work1549331]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Козёл отпущения»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Дафна Дю Морье]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1002052916-kozel-otpuscheniya-dafna-dyumore, https://fantlab.ru/work180574]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Бесы»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Фёдор Достоевский]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1008970663-besy-fjodor-dostoevskij, https://fantlab.ru/work281116]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Трое в лодке, не считая собаки»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Джером К. Джером]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.labirint.ru/books/962952/, https://fantlab.ru/work205174]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Госпожа Бовари»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Гюстав Флобер]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.labirint.ru/books/867653/, https://fantlab.ru/work218850]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Клаус»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Грант Моррисон, Дэн Мора]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Англия, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Коста-Рика]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[фэнтези, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">притча, графический роман]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1002907043-klaus-grant-morrison, https://fantlab.ru/work1100221]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Час кроткой воды»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Элеонора Раткевич]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[Латвия]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[фэнтези</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1003274931-chas-krotkoj-vody-eleonora-ratkevich, https://fantlab.ru/work1136339]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Фальшивомонетчики»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Андре Жид]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1007280757-falshivomonetchiki-andre-zhid, https://fantlab.ru/work605295]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Дни Савелия»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Григорий Служитель]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[магический реализм]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1005661381-dni-saveliya-grigorij-sluzhitel, https://fantlab.ru/work1041316]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Граф Аверин»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Виктор Дашкевич]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[фэнтези</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, детектив]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1008788845-graf-averin-koldun-rossijskoj-imperii-viktor-dashkevich, https://fantlab.ru/work1760109]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Выбор. О свободе и внутренней силе человека»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Эдит Ева Эгер, Эсме Швалль-Вейганд]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">США, США</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[реализм, историческая проза, биография]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.labirint.ru/books/754571/]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Правда»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">Терри Пратчетт]</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1000314150-melkie-bogi-terri-pratchett, https://fantlab.ru/work1722]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Бойцовский клуб»</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Чак Паланик]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[триллер]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1008887209-bojtsovskij-klub-chak-palanik, https://fantlab.ru/work18413]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Маленькая хозяйка большого дома»</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Джек Лондон]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1005588787-malenkaya-hozyajka-bolshogo-doma-dzhek-london, https://fantlab.ru/work183821]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Подросток»</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Фёдор Достоевский]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1008404473-podrostok-fjodor-dostoevskij, https://fantlab.ru/work134600]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Рождественские повести»</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Чарльз Диккенс]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1008802498-rozhdestvenskie-istorii-charlz-dikkens, https://fantlab.ru/work154462]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Брак и мораль</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">»</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[Бертран Рассел]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1006207318-brak-i-moral-bertran-rassel, https://kaspi.kz/shop/p/rassel-b-brak-i-moral--101606677/]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Вторая жизнь Уве»</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Фредрик Бакман]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[Швеция]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1005586864-vtoraya-zhizn-uve-fredrik-bakman, https://fantlab.ru/work800253]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Гарри Поттер и методы рационального мышления»</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Элиезер Юдковский]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1004979514-garri-potter-i-metody-ratsionalnogo-myshleniya-eliezer-yudkovskij, https://fantlab.ru/work698587]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Планета людей»</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Антуан де Сент-Экзюпери]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://fantlab.ru/work83483, https://www.labirint.ru/books/914757/]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Илон Маск. Tesla, SpaceX и дорога в будущее</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Эшли Вэнс]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1002389741-ilon-mask-tesla-spacex-i-doroga-v-buduschee-eshli-vens]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Тысячеликий герой»</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Джозеф Кэмпбелл]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[наука]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1008030517-tysyachelikij-geroj-dzhozef-kempbell]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«По ком звонит колокол»</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Эрнест Хемингуэй]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1008372466-po-kom-zvonit-kolokol-ernest-heminguej, https://www.labirint.ru/books/713826/]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Маус»</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Арт Шпигельман]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[графический роман]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1000732970-maus-art-shpigelman, https://fantlab.ru/work1656152]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Кысь»</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Татьяна Толстая]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1002006261-kys-tatyana-tolstaya, https://fantlab.ru/work113455]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Бремя страстей человеческих»</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Сомерсет Моэм]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1007593363-bremya-strastej-chelovecheskih-somerset-moem, https://fantlab.ru/work396857]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Одноэтажная Америка»</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Илья Ильф и Евгений Петров]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1008836065-odnoetazhnaya-amerika-ilya-ilf-evgenij-petrov, https://fantlab.ru/work187509]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Финансист»</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Теодор Драйзер]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.livelib.ru/book/1007477017-finansist-teodor-drajzer, https://fantlab.ru/work414390</t>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1008959485-pravda-terri-pratchett, https://fantlab.ru/work1946]</t>
   </si>
 </sst>
 </file>
@@ -1252,13 +1904,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A126" activeCellId="0" sqref="A126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.46"/>
@@ -1475,7 +2127,7 @@
       <c r="B7" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="0" t="n">
@@ -1859,7 +2511,7 @@
       <c r="B19" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="0" t="n">
@@ -1891,7 +2543,7 @@
       <c r="B20" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="0" t="n">
@@ -1987,7 +2639,7 @@
       <c r="B23" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="0" t="n">
@@ -2051,7 +2703,7 @@
       <c r="B25" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="0" t="n">
@@ -2275,7 +2927,7 @@
       <c r="B32" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="0" t="n">
@@ -2307,7 +2959,7 @@
       <c r="B33" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="0" t="n">
@@ -2531,7 +3183,7 @@
       <c r="B40" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="0" t="n">
@@ -2915,7 +3567,7 @@
       <c r="B52" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="0" t="n">
@@ -2977,7 +3629,7 @@
         <v>193</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>13</v>
@@ -3001,15 +3653,15 @@
         <v>27</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>30</v>
@@ -3033,17 +3685,17 @@
         <v>24</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="C56" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="0" t="n">
@@ -3065,17 +3717,17 @@
         <v>22</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C57" s="0" t="s">
+      <c r="A57" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="0" t="n">
@@ -3097,18 +3749,18 @@
         <v>26</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>2012</v>
@@ -3129,15 +3781,15 @@
         <v>23</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>13</v>
@@ -3161,15 +3813,15 @@
         <v>30</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>56</v>
@@ -3193,15 +3845,15 @@
         <v>27</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
-        <v>215</v>
+      <c r="A61" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>13</v>
@@ -3225,15 +3877,15 @@
         <v>25</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>13</v>
@@ -3242,7 +3894,7 @@
         <v>1949</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>480</v>
@@ -3257,15 +3909,15 @@
         <v>29</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>223</v>
+        <v>21</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>13</v>
@@ -3289,15 +3941,15 @@
         <v>27</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>13</v>
@@ -3306,7 +3958,7 @@
         <v>1911</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>296</v>
@@ -3321,15 +3973,15 @@
         <v>24</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>30</v>
@@ -3353,17 +4005,17 @@
         <v>28</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="C66" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="0" t="n">
@@ -3385,15 +4037,15 @@
         <v>2</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>30</v>
@@ -3417,15 +4069,15 @@
         <v>30</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>239</v>
+        <v>70</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>13</v>
@@ -3449,7 +4101,1831 @@
         <v>4</v>
       </c>
       <c r="K68" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F69" s="0" t="n">
         <v>240</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>336</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>576</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>1991</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>304</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>1936</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>608</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>1968</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>1987</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>416</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H78" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>1931</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>672</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>1880</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>352</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>1973</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>1104</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>1951</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>1979</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>416</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="K83" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>448</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K84" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>416</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>1952</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>480</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="K86" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>380</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I87" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="K87" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>1952</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>688</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>420</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I89" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="K89" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>480</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K90" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>1951</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>576</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>1972</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>424</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H92" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I92" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="K92" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>1980</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>576</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>352</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H94" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H95" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I95" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="K95" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>1919</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>288</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H96" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I96" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="K96" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>576</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H97" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K97" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>1965</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>448</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H98" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I98" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K98" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>576</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H99" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I99" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="K99" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>1899</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="G100" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H100" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I100" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="K100" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>1917</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H101" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I101" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="K101" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>1912</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H102" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I102" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="K102" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>1851</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>682</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H103" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I103" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="K103" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>416</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I104" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="K104" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>1951</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="K105" s="0" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>1939</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I106" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="K106" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="H107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="K107" s="0" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>1927</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="G108" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="H108" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I108" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K108" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>1928</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="H109" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I109" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K109" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>1946</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>608</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" s="0" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>1937</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="H111" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I111" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="K111" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>1965</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="G112" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="H112" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I112" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="K112" s="0" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>384</v>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="H113" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I113" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="K113" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="H114" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="K114" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>1957</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>480</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="H115" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I115" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="K115" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>1871</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>656</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="H116" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I116" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="K116" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>1889</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>384</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I117" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="K117" s="0" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>1856</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>384</v>
+      </c>
+      <c r="G118" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I118" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K118" s="0" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I119" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="K119" s="0" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>526</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="K120" s="0" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>1925</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>416</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I121" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K121" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>380</v>
+      </c>
+      <c r="G122" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="H122" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I122" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="K122" s="0" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>608</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I123" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="K123" s="0" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>352</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I124" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="K124" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>480</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="H125" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I125" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="K125" s="0" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
